--- a/IT Metric Dashboard Spreadsheet.xlsx
+++ b/IT Metric Dashboard Spreadsheet.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Meraki Switches" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Meraki AP" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Freshservice" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Users" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,7 +838,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>99.97</v>
+        <v>100</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1008,7 +1009,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DEN-1ST-TEMP</t>
+          <t>DEN-LAB</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1068,18 +1069,58 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>ABI-IT-LAB</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ABILENE</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>99.77</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>online</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ABI-IT-LAB2</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ABILENE</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>99.83</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>online</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>DEN-EPSILON</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>DENVER</t>
         </is>
       </c>
-      <c r="C33" t="n">
+      <c r="C35" t="n">
         <v>100</v>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>online</t>
         </is>
@@ -1138,11 +1179,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>66.36</v>
+        <v>62.31</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1158,11 +1199,11 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>66.08</v>
+        <v>62.02</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1318,11 +1359,11 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>66.97</v>
+        <v>62.31</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1338,11 +1379,11 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>66.95999999999999</v>
+        <v>62.31</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1378,11 +1419,11 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>66.95999999999999</v>
+        <v>57.41</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1398,11 +1439,11 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>66.97</v>
+        <v>62.3</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1418,11 +1459,11 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>66.95</v>
+        <v>62.24</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1438,11 +1479,11 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>66.97</v>
+        <v>62.26</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1458,11 +1499,11 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>66.97</v>
+        <v>62.24</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1478,11 +1519,11 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>66.97</v>
+        <v>62.18</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1498,11 +1539,11 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>66.97</v>
+        <v>62.3</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1518,11 +1559,11 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>66.97</v>
+        <v>62.31</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1538,11 +1579,11 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>66.97</v>
+        <v>62.3</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1558,11 +1599,11 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>66.95999999999999</v>
+        <v>62.31</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1578,11 +1619,11 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>66.95999999999999</v>
+        <v>62.24</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1598,11 +1639,11 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>66.95999999999999</v>
+        <v>62.31</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1618,11 +1659,11 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>66.97</v>
+        <v>62.3</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1669,16 +1710,6831 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
-        <v>73.91</v>
+        <v>80.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D313"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>User Principal Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Job Title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>aalexander@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Automation Engineering Supervisor</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Automation &amp; Instrumentation</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>aarrazate@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Structural Designer</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>abdihussein@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Civil Engineer</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Civil</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>abduhussein@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Electrical Engineer Intern</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Electrical Engineers</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>aberry@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sr. Piping Designer</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>abillings@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sr. Architect I</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>acamp@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Document Control Specialist/Technician</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Document Control</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AChehouri@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sr. Electrical Engineer</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>acoleman@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sr. Process Engineer - M&amp;M</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Process Engineers</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>aengle@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Administrative Assistant</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ahailey@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mechanical Engineer</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mechanical Engineering</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Abilene</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ahernandez@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Structural Engineer</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ahewett@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sr. Structural Engineer IV</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Abilene</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>akester@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sr Plant Layout Designer</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Planrt Design</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>akim@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sr. Structural Designer I</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>aluke@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sr. Process Engineer</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>amerz@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Mechanical Engineer Intern</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>amilligan@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Document Control Professional</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Document Control</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Abilene</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>apicker@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>P&amp;ID Supervsor</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>aramirez@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Electrical Designer</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Armadillo@se1.onmicrosoft.com</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Abilene Office</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Abilene</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>arodriguez@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Mechanical Engineer III</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>aslatten@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Manager - Human Capital</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>General Administration</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>atiotuico@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Sr. Pipeline/Structural Engineer II</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Pipeline/Structural</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>avavros@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CAD Drafter</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>aworth@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Document Control Professional</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Doc Control</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ayeung@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sr. Process Engineer</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>balexander@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sr. Process Engineer</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>bbergdall@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sr. Mechanical Engineer IV</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Mechanical - M&amp;M</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>bbianco@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sr. Mechanical Engineer</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>bblut@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sr. Automation Engineer I</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Automation &amp; Instrumentation</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>bclark@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Process Engineer III</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>bevans@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Sr. Project Manager</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>bferguson@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Mechanical Engineer</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Mechanical Engineering</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Abilene</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>bjohnson@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Sr. Mechanical Engineer</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Mechanical Engineering</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>bkillinger@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Mechanical Engineer III</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Mechanical Engineering</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>blewis@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Sr. Process Engineer</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Process Engineers</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>blykins@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Project Controls Engineer</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Project Services</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>bolson@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Sr. Process Engineer</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>bpatten@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Sr. Piping Designer</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>bprimeaux@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>bsachitano@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Information Technology Manager</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Information Technology</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>bschultz@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Sr. Instrumentation Designer I</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Instrumentation &amp; Controls</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>bslatten@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Marketing Professional IV</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>btaylor@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Sr. Piping Designer I</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>bvilner@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Distinguished Expert – Structural Engineering</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>bwaddell@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Sr. Piping Designer</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>byenko@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Pipeline Services Discipline Lead</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Pipeline Services</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>cblatter@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Sr. Instrumentation Specialist/Technician I</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Automation &amp; Instrumentation</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>cboyce@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Director - Energy</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Senior Leadership</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>cbrackney@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Process Engineer</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ccamacho@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Mechanical Engineer IV</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Mechanical Engineering</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Abilene</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ccheatham@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Mechanical Engineer</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Mechanical Engineering</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Abilene</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ccolchin@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Administrative Assistant</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>General Administration</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>cdelgadillo@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Structural Engineer Intern</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>cfelts@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Sr. Project Manager IV</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Project Management - Hydrogen &amp; Modern Fuels</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>cgresham@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Sr. Piping Designer</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>cjohnson@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Sr. Civil Engineer II</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Civil</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>clove@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Mechanical Engineer II</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>cmendenhall@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Sr. Project Manager IV</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Project Management - Hydrogen &amp; Modern Fuels</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Abilene</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>cmoore@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Sr.Structural Engineer</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Rock Springs</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>coster@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Sr. Project Controls Professional</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Project Services</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>cperalta@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>CAD Drafter I</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>cperry@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Process Engineer</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>cplaisted@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Sr. Piping Designer</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>WY-Engineering</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Rock Springs</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>crobertson@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Sr. Pipeline Engineer II</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Pipeline Services</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>crwolf@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>CAD Drafter</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>csamuel@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Executive Chair</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Corporate Administration</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>csmith@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Mechanical Engineer</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ctaylor@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>CAD Drafter IV</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>culrich@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Sr. Electrical Designer II</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>cwolf@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Sr. Process Engineer</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Process Engineers - M&amp;M</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>daho@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Sr. Mechanical Engineer II</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>dallen@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>IT Specialist/Technician</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Information Technology</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>dbartel@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Permitting Project Manager I</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Pipeline Services Department</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>dbrossette@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>CAD Drafter</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Abilene</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>dcaoili@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Instrumentation Engineer III</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Instrumentation &amp; Controls</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>dcepeda@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Sr. Project Controls Engineer IV</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Project Services</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>dcoonrod@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Sr. Piping Designer</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>dghadge@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Sr. Structural Designer</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>dgrant@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Sr. Electrical Engineer</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>dhall@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Accounting Specialist</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Accounting</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>djalemayehu@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Director of Utilities</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Corporate Administration</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>djoiner@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Chief Electrical Engineer</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Electrical Engineers</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>dmetelko@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Administrative Assistant</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>General Administration</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>dmiller@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Pipeline GIS Specialist/Technician I</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>dnoschese@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Sr. Project Manager</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>drtorres@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Process Engineer Intern</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Process Engineering</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>dsantjer@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Sr. Piping Designer II</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>dthorn@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Manager of Renewable Energy Projects</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>dweber@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Sr. Director</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Senior Leadership</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Abilene</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>dwhorton@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Sr. Piping Designer IV</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ebrunk@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Sr. Project Manager</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>eciobanu@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Mechanical Engineer</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Rock Springs</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ecurtis@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Sr. Civil Designer</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Civil</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>efisk@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Electrical Engineer</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>egoupil@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Document Control Specialist / Technician</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Doc Control</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>ekane@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Electrical Designer</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>eolagoke@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Electrical Engineer</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>esamuel@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Corporate Administration</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>esydow@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>CTO</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Corporate Administration</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>ethomas@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Automation Engineer</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Automation &amp; Instrumentation</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>fbenton@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Document Control Supervisor</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Document Control</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Abilene</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>fnaazar@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Accounting Professional</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Accounting</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>fpalmos@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Mechanical Engineering Intern</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Mechanical Engineering</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>garmer@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Sr. Piping Designer</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>gbattin@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Civil Designer</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Civil</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>gbattles@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Sr. Structural Designer</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>glove@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Sr. E/I Designer/Electrical Superintendent</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>gmiller@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Sr. Architect</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>gschalck@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Mechanical Engineer</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>gspradling@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Sr. Structural Engineer</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>hcurtis@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Sr. Electrical Engineer</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>hharris@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Sr. Electrical Designer I</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>hheyn@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Sr. Electrical Designer</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>hpollicoff@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Sr. Process Engineer - M&amp;M</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Process Engineers</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>hsamuel@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Manager – Proposal Development and Marketing</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Business Development</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>hsmith@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Controller</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Accounting</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>ialexander@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Sr. Project Manager</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>irustage@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Sr. Plant Designer</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>jadams@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Sr. Piping Designer</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>jcarrizales@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Piping Designer</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>jcely@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Structural Designer</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>jchampine@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Project Assistant Lead - M&amp;M</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Administrative Department</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>jcotten@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Sr. Business Development Professional</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Business Development</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>jcwilliams@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Sr. Piping Designer</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>jduty@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Sr. Piping Designer</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>jellis@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>General Arrangements &amp; Layout Supervisor</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Plant Design</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>jjsorensen@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Sr. Procurement Professional</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Project Services</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>jkabenjabu@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Structural Engineer</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>jkather@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>CAD Manager</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>jlatimer@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Mechanical Engineer</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Mechanical Engineering</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>jmaida@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>President</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Business Development</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>jmakrani@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Pipeline Engineer Intern</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Pipeline</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>jmason@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Project Controls Professional</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Project Controls</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>jparker@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Sr. Piping Designer</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Piping Department</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>jpavlas@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Sr. MEP Engineer</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Project Engineers</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Waco</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>jphilippus@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Sr. Piping Designer</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>jrehfeld@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Project Controls Professional</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Project Controls</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>jrein@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Sr. Structural Engineer I</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>jrivers@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Procurement Professional</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Procurement &amp; Logistics</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>jromero@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Sr. Electrical Engineer</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>jschilz@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Sr. Mapping Designer</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Pipeline</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>jsorensen@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Director - Energy &amp; Pipeline Services</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>jspitzer@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Process Engineer I</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Process Engineers</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>jstedman@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Sr. Structural Designer</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>jstevens@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Civil Engineer</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Civil</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>jstewart@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Piping Designer</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>jstruble@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Construction Manager</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Construction &amp; Commissioning</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>jtowler@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Sr. Structural Designer</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>jweatherly@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Human Resources Assistant</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Human Resources</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>jwilliams@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Sr. Mechanical Engineer</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>kblackwell@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Sr. Structural/Piping Designer IV</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>WY-Engineering</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Rock Springs</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>kboswell@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Chief Engineer - Fabrication</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Mechanical Engineering</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Abilene</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>kchoyce@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Sr. Project Manager</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>kcooper@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Sr. Piping Designer</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>kdhliwayo@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Sr. Automation Engineer</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Automation &amp; Instrumentation</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>kforney@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Sr. Project Controls Specialist/Technician</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Project Controls &amp; Estimating</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>kgernentz@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Pipe Stress Analyst</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Mechanical Engineering</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>kghaffari@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Electrical Designer</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>kgkelly@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Sr. Procurement Specialist/Technician</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Procurement</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>kgramly@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Process Engineering Supervisor - Metals &amp; Minerals</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>(M&amp;M)</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>kheersink@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Principal Engineer – Technical Solutions</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Process Engineers - O&amp;G</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>khoughton@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Structural Design Supervisor. / CADEC Mgr.</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>kjackson@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Internal Documents Coordinator</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Document Control</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>kkillough@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Process Engineer</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>kmahoney@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Sr. Project Manager</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Civil</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>kmccord@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Sr. Instrumentation Engineer</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Instrumentation &amp; Controls</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>kmills@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Sr.Process Engineer</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>knarkah@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Mechanical Engineer</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Mechanical Engineering</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Abilene</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>knuttall@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Accounting Specialist/Technician</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Accounting</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>kphillips@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Sr. Business Development Professional</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Sr. Business Development Professional</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>kramasamy@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Sr. Structural Designer</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>kseals@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>P&amp;ID Chief/Piping Design Subject Matter Expert</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>kstansbury@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Sr. Project Manager</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>kstewart@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Construction Mgr, Contractor</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Construction &amp; Commissioning</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>lblosser@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Electrical Designer I</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>lcarreras@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Project Assistant Lead</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>lelledge@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Administrative Assistant Supervisor</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>lkukic@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Procurement Supervisor</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>llabo@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Sr. Structural Designer I</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>lohl@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>EI&amp;C Engineering Coordinator</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>lroot@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Civil Supervisor</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Civil</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>lschaefer@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Plant Layout Designer</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Plant Design</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>madkins@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Sr. Process Engineer - M&amp;M</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Process Engineers</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>mbolling@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Manager – Civil &amp; Structural Engineering</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Project Engineers</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>mcjohnson@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Sr. Automation Engineer I</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Automation &amp; Instrumentation</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>mdarnell@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Automation/Instrumentation Engineer</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Automation &amp; Instrumentation</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>mfalla@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Sr. Structural Designer I</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>mfortney@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Project Manager I</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>mgand@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Sr. Systems Administrator</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Information Technology</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Abilene</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>mgarcia@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Sr. Process Engineer</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Process Engineers - O&amp;G</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>mgiardino@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Sr. Structural Designer I</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>mgriffin@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Sr. Instrumentation Engineer</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Instrumentation &amp; Controls</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>mhamilton@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Sr. Piping Designer II</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>mjackson@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Sr. Project Manager IV</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Project Management - Hydrogen &amp; Modern Fuels</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>mjohnson@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Sr, Automation Engineer I</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Automation &amp; Instrumentation</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>mkammerzell@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Sr. Electrical Designer</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Electrical Design</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>mmacaraeg@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Sr. Civil Designer</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Civil</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>mmarlow@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Project Manager IV</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>mmcglynn@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Industry Manager - Metals &amp; Minerals</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>mmiratsky@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>CAO</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Corporate Administration</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>mmuro@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Study Manager</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>molmsted@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Director - Engineering &amp; Project Execution</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Pipeline Services</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>mparks@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Pipeline Engineer</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Pipeline</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>mposten@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Process Engineer IV</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>mprabhu@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Process Engineer Intern</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Process Engineers - M&amp;M</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>mreed@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Sr.Piiping Designer</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Abilene</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>mschindler@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Mechanical Engineer</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>mserpe@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Sr. Accounting Professional IV</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Accounting</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>mskelskey@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Sr. Civil Engineer</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Civil</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>msmith@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Electrical Engineer IV</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>msteelman@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>CAD Drafter</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>msteinhoff@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Instrumentation Specialist/Technician II</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Automation &amp; Instrumentation</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>mtamhane@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Manager of EI&amp;C</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>mtoso@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Mechanical Engineering Supervisor - Metals &amp; Minerals</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Mechanical - M&amp;M</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>mvasquez@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Structural Drafter Intern</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>mwiland@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Sr. Electrical Designer I</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>mwu@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Payroll Specialist</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Human Resources</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>nblomgren@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Survey Technician &amp; Mapping Lead</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Pipeline Services</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>ncheishvili@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Process Engineer III</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>ndemel@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Sr. Project Manager I</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>ngunsenkhorol@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Procurement Professional</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Procurement</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>nholcomb@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Chief Instrumentation Engineer</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Instrumentation &amp; Controls</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>nhuckins@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Sr. Piping Designer III</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>nmohamed@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Systems Administrator</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Information Technology</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>nthompson@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Pipeline Engineer</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Pipeline</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>nuriona@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Sr. Structural Designer</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>nviola@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Electrical Designer</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Electrical Design</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Abilene</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>oebuka@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Procurement Professional</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Procurement</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>pblosser@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Sr. Technical Advisor - EI&amp;C Design</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>pbrown@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Project Management - Energy &amp; Pipeline</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>pdeterding@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>CAD Drafter</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>pgiacomozzi@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Piping Design Supervisor</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>phayden@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Mapping Designer II</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Pipeline</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>phoskins@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Systems Administrator</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Information Technology</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Abilene</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>pjacobs@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Business Development Professional IV</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Business Development</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>pjgreen@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Accounting Supervisor</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Accounting</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>plangley@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Sr. Piping Designer</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Abilene</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>plawrence@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Sr. Piping Designer I</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>plewis@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Sr. Electrical Engineer III</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>pmartineau@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Sr. Structural Engineer I</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>pmech@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Sr. Mechanical Engineer I</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Mechanical - M&amp;M</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>ppourvash@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Sr. Mechanical Engineer</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Mechanical Engineering</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Abilene</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>projectassistance@samuelengineering.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>qlafemina@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>CAD Drafter I</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>ralnakkash@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Sr. Structural Engineer</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>rbloser@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Process Engineering Supervisor - Hydrogen &amp; Modern Fuels</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Process Engineers</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>rboone@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Project Engineers</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Project Management - Hydrogen &amp; Modern Fuels</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>rboyce@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Process Engineer</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Process Engineers</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>rcox@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Sr. Piping Designer</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>redwards@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Mechanical Supervisor - Metals &amp; Minerals</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Mechanical Engineering</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>rhollenbach@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Process Technical Advisor (O&amp;G)</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Process Engineers - O&amp;G</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>rjohnson@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Sr. Pipeline GIS Professional III</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Pipeline Services</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>rkarki@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Structural Design Supervisor</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>rmanes@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Sr. Director</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Distinguished Experts</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>rmcdaniel@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Sr. Process Engineer - M&amp;M</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Process Engineers</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>rmills@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Sr. Structural Engineer I</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>rmorris@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Chief Electrical Engineer</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>rpereira@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Procurement Supervisor</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Project Services</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>rquintana@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>CAD Drafter I</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>rrasmusson@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Sr. Piping Designer</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>WY-Engineering</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Rock Springs</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>rrollins@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Sr. Mechanical Engineer</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Mechanical Engineering</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Abilene</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>rspitzer@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Process Engineer</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Process Engineers</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>rteel@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Sr. Piping Designer</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>rthompson@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Mechanical Engineer II</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Mechanical Engineering</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Abilene</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>rwalty@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Sr. Procurement Professional II</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Procurement</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>rwilliams@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Vice President</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Corporate Administration</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>rzimmermann@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Piping Design Manager</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>sapozder@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Software Engineer IV</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Information Technology</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>sclay@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Sr Project Manager IV</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>sengle@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Sr. Piping Designer IV</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>sheath@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Project Engineer I</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Pipeline Services</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>shilburn@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Project Asisstant</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Administration</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>shukill@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Piping Design Supervisor</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Piping Department</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>smaguire@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Sr. Mechanical Engineer</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>smarshall@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Electrical Designer</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Electrical Design</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Abilene</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>snevarez@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Outreach Coordinator</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>snevins@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Project Controls Supervisor</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Project Services</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>sowen@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Document Control Supervisorr</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Document Control</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>spozder@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Distinguished Expert</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Distinguished Experts</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>srabon@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Civil Engineer IV</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Civil</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>srathod@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Sr. Structural/Piping Designer</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Rock Springs</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>sstrain@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Manager of Technology &amp; Design Advancement</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>tarce@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Mechanical Engineer</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Mechanical Engineering</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Abilene</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>tarchuleta@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Manager of Process Engineering - Oil &amp; Gas</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Process Engineers - O&amp;G</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>tbarry@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Sr.Systems Administrator</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Information Technology</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>tbray@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Accounting Specialist/Technician I</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Accounting</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>tbuzogany@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Piping Designer IV</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>tchapman@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Sr. Mechanical Engineer IV</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>tcrafton@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Sr. Electrical Designer I</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>tfarris@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Sr. Structural Designer II</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>tgriffin@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Sr. Mechanical Engineer I</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Mechanical - M&amp;M</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>tharper@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Design Manager</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Plant Design</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>thillen@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Civil Designer III</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Civil</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>tjeter@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Sr. Piping Designer</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>tjones@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Project Controls Specialist/Technician</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Project Controls</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>tlambremont@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Sr. Administrative Assistant</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Administration</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Abilene</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>tlong@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Sr. Piping Designer</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>tmess@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Sr. Project Manager III</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>tnguyen@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Sr. Structural Engineer I</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>tparks@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Sr. Piping Designer</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Abilene</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>training@samuelengineering.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>trenehan@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Project Manager IV</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>twilliams@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Piping Designer</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>vparadis@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Sr. Piping Designer I</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>vsamuel@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Manager - Marketing &amp; Corporate Training</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Project Engineer</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>vthakkar@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Sr. Electrical Engineer</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>wjones@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Sr. Instrumentation Designer</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Instrumentation &amp; Controls</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>zkreider@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Sr. Project Manager IV</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Project Services</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>zsamiec@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Sr. Project Manager</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>WY-Project Management</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Rock Springs</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>zsokolowski@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Process Engineer Intern</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/IT Metric Dashboard Spreadsheet.xlsx
+++ b/IT Metric Dashboard Spreadsheet.xlsx
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>99.97</v>
+        <v>100</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DEN-1ST-TEMP</t>
+          <t>DEN-LAB</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1138,11 +1138,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>66.36</v>
+        <v>62.3</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1158,11 +1158,11 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>66.08</v>
+        <v>62.02</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1318,11 +1318,11 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>66.97</v>
+        <v>62.25</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1338,11 +1338,11 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>66.95999999999999</v>
+        <v>62.3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1378,11 +1378,11 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>66.95999999999999</v>
+        <v>62.13</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1398,11 +1398,11 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>66.97</v>
+        <v>62.28</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1418,11 +1418,11 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>66.95</v>
+        <v>62.3</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1438,11 +1438,11 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>66.97</v>
+        <v>62.3</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1458,11 +1458,11 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>66.97</v>
+        <v>62.3</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1478,11 +1478,11 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>66.97</v>
+        <v>62.29</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1498,11 +1498,11 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>66.97</v>
+        <v>62.3</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1518,11 +1518,11 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>66.97</v>
+        <v>62.3</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1538,11 +1538,11 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>66.97</v>
+        <v>62.3</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1558,11 +1558,11 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>66.95999999999999</v>
+        <v>62.29</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1578,11 +1578,11 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>66.95999999999999</v>
+        <v>62.3</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1598,11 +1598,11 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>66.95999999999999</v>
+        <v>62.29</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1618,11 +1618,11 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>66.97</v>
+        <v>62.29</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>online</t>
         </is>
       </c>
     </row>
@@ -1663,22 +1663,22 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>SLA Resolution Compliance</t>
+          <t>Resolution Rate</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D2" t="n">
-        <v>73.91</v>
+        <v>80.39</v>
       </c>
     </row>
   </sheetData>

--- a/IT Metric Dashboard Spreadsheet.xlsx
+++ b/IT Metric Dashboard Spreadsheet.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Meraki Switches" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Meraki AP" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Freshservice" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Users" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="AAD Users" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>99.77</v>
+        <v>100</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>99.83</v>
+        <v>100</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1179,11 +1179,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>62.31</v>
+        <v>65.83</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
     </row>
@@ -1199,11 +1199,11 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>62.02</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>99.98</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>99.98</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>99.98</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>99.98</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>99.98</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1359,11 +1359,11 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>62.31</v>
+        <v>66.44</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
     </row>
@@ -1379,11 +1379,11 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>62.31</v>
+        <v>66.44</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
     </row>
@@ -1419,11 +1419,11 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>57.41</v>
+        <v>61.54</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
     </row>
@@ -1439,11 +1439,11 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>62.3</v>
+        <v>66.44</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
     </row>
@@ -1459,11 +1459,11 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>62.24</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
     </row>
@@ -1479,11 +1479,11 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>62.26</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
     </row>
@@ -1499,11 +1499,11 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>62.24</v>
+        <v>66.44</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
     </row>
@@ -1519,11 +1519,11 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>62.18</v>
+        <v>66.36</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
     </row>
@@ -1539,11 +1539,11 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>62.3</v>
+        <v>66.43000000000001</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
     </row>
@@ -1559,11 +1559,11 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>62.31</v>
+        <v>66.44</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
     </row>
@@ -1579,11 +1579,11 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>62.3</v>
+        <v>66.44</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
     </row>
@@ -1599,11 +1599,11 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>62.31</v>
+        <v>66.43000000000001</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
     </row>
@@ -1619,11 +1619,11 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>62.24</v>
+        <v>66.43000000000001</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
     </row>
@@ -1639,11 +1639,11 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>62.31</v>
+        <v>66.44</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
     </row>
@@ -1659,11 +1659,11 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>62.3</v>
+        <v>66.43000000000001</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
     </row>
@@ -1710,16 +1710,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="D2" t="n">
-        <v>80.33</v>
+        <v>90.48</v>
       </c>
     </row>
   </sheetData>
@@ -1733,7 +1733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D313"/>
+  <dimension ref="A1:D312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2096,17 +2096,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>aluke@samuelengineering.com</t>
+          <t>amerz@samuelengineering.com</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sr. Process Engineer</t>
+          <t>Mechanical Engineer Intern</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>Mechanical</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2118,61 +2118,61 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>amerz@samuelengineering.com</t>
+          <t>amilligan@samuelengineering.com</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mechanical Engineer Intern</t>
+          <t>Document Control Professional</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mechanical</t>
+          <t>Document Control</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Abilene</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>amilligan@samuelengineering.com</t>
+          <t>apicker@samuelengineering.com</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Document Control Professional</t>
+          <t>P&amp;ID Supervsor</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Document Control</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Abilene</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>apicker@samuelengineering.com</t>
+          <t>aramirez@samuelengineering.com</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>P&amp;ID Supervsor</t>
+          <t>Electrical Designer</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2184,51 +2184,51 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>aramirez@samuelengineering.com</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Electrical Designer</t>
+          <t>Armadillo@se1.onmicrosoft.com</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Abilene Office</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Abilene</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Armadillo@se1.onmicrosoft.com</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Abilene Office</t>
+          <t>arodriguez@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mechanical Engineer III</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Abilene</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>arodriguez@samuelengineering.com</t>
+          <t>aslatten@samuelengineering.com</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Mechanical Engineer III</t>
+          <t>Manager - Human Capital</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>General Administration</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2240,17 +2240,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>aslatten@samuelengineering.com</t>
+          <t>atiotuico@samuelengineering.com</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Manager - Human Capital</t>
+          <t>Sr. Pipeline/Structural Engineer II</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>General Administration</t>
+          <t>Pipeline/Structural</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2262,17 +2262,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>atiotuico@samuelengineering.com</t>
+          <t>avavros@samuelengineering.com</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sr. Pipeline/Structural Engineer II</t>
+          <t>CAD Drafter</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Pipeline/Structural</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2284,17 +2284,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>avavros@samuelengineering.com</t>
+          <t>aworth@samuelengineering.com</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CAD Drafter</t>
+          <t>Document Control Professional</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Doc Control</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2306,17 +2306,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>aworth@samuelengineering.com</t>
+          <t>ayeung@samuelengineering.com</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Document Control Professional</t>
+          <t>Sr. Process Engineer</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Doc Control</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2328,7 +2328,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ayeung@samuelengineering.com</t>
+          <t>balexander@samuelengineering.com</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2350,17 +2350,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>balexander@samuelengineering.com</t>
+          <t>bbergdall@samuelengineering.com</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sr. Process Engineer</t>
+          <t>Sr. Mechanical Engineer IV</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>Mechanical - M&amp;M</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2372,17 +2372,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>bbergdall@samuelengineering.com</t>
+          <t>bbianco@samuelengineering.com</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sr. Mechanical Engineer IV</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Mechanical - M&amp;M</t>
+          <t>Sr. Mechanical Engineer</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2394,12 +2389,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>bbianco@samuelengineering.com</t>
+          <t>bblut@samuelengineering.com</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sr. Mechanical Engineer</t>
+          <t>Sr. Automation Engineer I</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Automation &amp; Instrumentation</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2411,17 +2411,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>bblut@samuelengineering.com</t>
+          <t>bclark@samuelengineering.com</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sr. Automation Engineer I</t>
+          <t>Process Engineer III</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Automation &amp; Instrumentation</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2433,17 +2433,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>bclark@samuelengineering.com</t>
+          <t>bevans@samuelengineering.com</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Process Engineer III</t>
+          <t>Sr. Project Manager</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2455,34 +2455,34 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>bevans@samuelengineering.com</t>
+          <t>bferguson@samuelengineering.com</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sr. Project Manager</t>
+          <t>Mechanical Engineer</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Mechanical Engineering</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Abilene</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>bferguson@samuelengineering.com</t>
+          <t>bjohnson@samuelengineering.com</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Mechanical Engineer</t>
+          <t>Sr. Mechanical Engineer</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2492,19 +2492,19 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Abilene</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>bjohnson@samuelengineering.com</t>
+          <t>bkillinger@samuelengineering.com</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sr. Mechanical Engineer</t>
+          <t>Mechanical Engineer III</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2521,17 +2521,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bkillinger@samuelengineering.com</t>
+          <t>blewis@samuelengineering.com</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mechanical Engineer III</t>
+          <t>Sr. Process Engineer</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mechanical Engineering</t>
+          <t>Process Engineers</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2543,39 +2543,39 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>blewis@samuelengineering.com</t>
+          <t>blykins@samuelengineering.com</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sr. Process Engineer</t>
+          <t>Project Controls Engineer</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Process Engineers</t>
+          <t>Project Services</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>blykins@samuelengineering.com</t>
+          <t>bolson@samuelengineering.com</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Project Controls Engineer</t>
+          <t>Sr. Process Engineer</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Project Services</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2587,17 +2587,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bolson@samuelengineering.com</t>
+          <t>bpatten@samuelengineering.com</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sr. Process Engineer</t>
+          <t>Sr. Piping Designer</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2609,17 +2609,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>bpatten@samuelengineering.com</t>
+          <t>bprimeaux@samuelengineering.com</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sr. Piping Designer</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Project Management</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2631,17 +2631,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>bprimeaux@samuelengineering.com</t>
+          <t>bsachitano@samuelengineering.com</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Information Technology Manager</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2653,61 +2653,61 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>bsachitano@samuelengineering.com</t>
+          <t>bschultz@samuelengineering.com</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Information Technology Manager</t>
+          <t>Sr. Instrumentation Designer I</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Instrumentation &amp; Controls</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>bschultz@samuelengineering.com</t>
+          <t>bslatten@samuelengineering.com</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sr. Instrumentation Designer I</t>
+          <t>Marketing Professional IV</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Instrumentation &amp; Controls</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>bslatten@samuelengineering.com</t>
+          <t>btaylor@samuelengineering.com</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Marketing Professional IV</t>
+          <t>Sr. Piping Designer I</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2719,17 +2719,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>btaylor@samuelengineering.com</t>
+          <t>bvilner@samuelengineering.com</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sr. Piping Designer I</t>
+          <t>Distinguished Expert – Structural Engineering</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Structural</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2741,17 +2741,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>bvilner@samuelengineering.com</t>
+          <t>bwaddell@samuelengineering.com</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Distinguished Expert – Structural Engineering</t>
+          <t>Sr. Piping Designer</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Structural</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2763,17 +2763,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>bwaddell@samuelengineering.com</t>
+          <t>byenko@samuelengineering.com</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sr. Piping Designer</t>
+          <t>Pipeline Services Discipline Lead</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Pipeline Services</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2785,17 +2785,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>byenko@samuelengineering.com</t>
+          <t>cblatter@samuelengineering.com</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Pipeline Services Discipline Lead</t>
+          <t>Sr. Instrumentation Specialist/Technician I</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Pipeline Services</t>
+          <t>Automation &amp; Instrumentation</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2807,78 +2807,78 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>cblatter@samuelengineering.com</t>
+          <t>cboyce@samuelengineering.com</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sr. Instrumentation Specialist/Technician I</t>
+          <t>Director - Energy</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Automation &amp; Instrumentation</t>
+          <t>Senior Leadership</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>cboyce@samuelengineering.com</t>
+          <t>cbrackney@samuelengineering.com</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Director - Energy</t>
+          <t>Process Engineer</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Senior Leadership</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>cbrackney@samuelengineering.com</t>
+          <t>ccamacho@samuelengineering.com</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Process Engineer</t>
+          <t>Mechanical Engineer IV</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>Mechanical Engineering</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Abilene</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ccamacho@samuelengineering.com</t>
+          <t>ccheatham@samuelengineering.com</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mechanical Engineer IV</t>
+          <t>Mechanical Engineer</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2895,39 +2895,39 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ccheatham@samuelengineering.com</t>
+          <t>ccolchin@samuelengineering.com</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Mechanical Engineer</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Mechanical Engineering</t>
+          <t>General Administration</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Abilene</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ccolchin@samuelengineering.com</t>
+          <t>cdelgadillo@samuelengineering.com</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Administrative Assistant</t>
+          <t>Structural Engineer Intern</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>General Administration</t>
+          <t>Structural</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2939,61 +2939,61 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>cdelgadillo@samuelengineering.com</t>
+          <t>cfelts@samuelengineering.com</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Structural Engineer Intern</t>
+          <t>Sr. Project Manager IV</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Structural</t>
+          <t>Project Management - Hydrogen &amp; Modern Fuels</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>cfelts@samuelengineering.com</t>
+          <t>cgresham@samuelengineering.com</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sr. Project Manager IV</t>
+          <t>Sr. Piping Designer</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Project Management - Hydrogen &amp; Modern Fuels</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>cgresham@samuelengineering.com</t>
+          <t>cjohnson@samuelengineering.com</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sr. Piping Designer</t>
+          <t>Sr. Civil Engineer II</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Civil</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3005,17 +3005,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>cjohnson@samuelengineering.com</t>
+          <t>clove@samuelengineering.com</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sr. Civil Engineer II</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Civil</t>
+          <t>Mechanical Engineer II</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3027,78 +3022,83 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>clove@samuelengineering.com</t>
+          <t>cmendenhall@samuelengineering.com</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Mechanical Engineer II</t>
+          <t>Sr. Project Manager IV</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Project Management - Hydrogen &amp; Modern Fuels</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Abilene</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>cmendenhall@samuelengineering.com</t>
+          <t>cmoore@samuelengineering.com</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Sr. Project Manager IV</t>
+          <t>Sr.Structural Engineer</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Project Management - Hydrogen &amp; Modern Fuels</t>
+          <t>Structural</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Abilene</t>
+          <t>Rock Springs</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>cmoore@samuelengineering.com</t>
+          <t>coster@samuelengineering.com</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sr.Structural Engineer</t>
+          <t>Sr. Project Controls Professional</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Structural</t>
+          <t>Project Services</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Rock Springs</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>coster@samuelengineering.com</t>
+          <t>cperalta@samuelengineering.com</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Sr. Project Controls Professional</t>
+          <t>CAD Drafter I</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Project Services</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3110,17 +3110,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>cperalta@samuelengineering.com</t>
+          <t>cperry@samuelengineering.com</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CAD Drafter I</t>
+          <t>Process Engineer</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3132,61 +3132,61 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>cperry@samuelengineering.com</t>
+          <t>cplaisted@samuelengineering.com</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Process Engineer</t>
+          <t>Sr. Piping Designer</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>WY-Engineering</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Rock Springs</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>cplaisted@samuelengineering.com</t>
+          <t>crobertson@samuelengineering.com</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sr. Piping Designer</t>
+          <t>Sr. Pipeline Engineer II</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>WY-Engineering</t>
+          <t>Pipeline Services</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Rock Springs</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>crobertson@samuelengineering.com</t>
+          <t>crwolf@samuelengineering.com</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Sr. Pipeline Engineer II</t>
+          <t>CAD Drafter</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Pipeline Services</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3198,17 +3198,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>crwolf@samuelengineering.com</t>
+          <t>csamuel@samuelengineering.com</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CAD Drafter</t>
+          <t>Executive Chair</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Corporate Administration</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3220,17 +3220,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>csamuel@samuelengineering.com</t>
+          <t>csmith@samuelengineering.com</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Executive Chair</t>
+          <t>Mechanical Engineer</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Corporate Administration</t>
+          <t>Mechanical</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3242,56 +3242,56 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>csmith@samuelengineering.com</t>
+          <t>ctaylor@samuelengineering.com</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Mechanical Engineer</t>
+          <t>CAD Drafter IV</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Mechanical</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ctaylor@samuelengineering.com</t>
+          <t>culrich@samuelengineering.com</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CAD Drafter IV</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Piping</t>
+          <t>Sr. Electrical Designer II</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>culrich@samuelengineering.com</t>
+          <t>cwolf@samuelengineering.com</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sr. Electrical Designer II</t>
+          <t>Sr. Process Engineer</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Process Engineers - M&amp;M</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3303,17 +3303,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>cwolf@samuelengineering.com</t>
+          <t>daho@samuelengineering.com</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Sr. Process Engineer</t>
+          <t>Sr. Mechanical Engineer II</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Process Engineers - M&amp;M</t>
+          <t>Mechanical</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3325,17 +3325,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>daho@samuelengineering.com</t>
+          <t>dallen@samuelengineering.com</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Sr. Mechanical Engineer II</t>
+          <t>IT Specialist/Technician</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Mechanical</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3347,17 +3347,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>dallen@samuelengineering.com</t>
+          <t>dbartel@samuelengineering.com</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>IT Specialist/Technician</t>
+          <t>Permitting Project Manager I</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Pipeline Services Department</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3369,105 +3369,105 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>dbartel@samuelengineering.com</t>
+          <t>dbrossette@samuelengineering.com</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Permitting Project Manager I</t>
+          <t>CAD Drafter</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Pipeline Services Department</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Abilene</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>dbrossette@samuelengineering.com</t>
+          <t>dcaoili@samuelengineering.com</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CAD Drafter</t>
+          <t>Instrumentation Engineer III</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Instrumentation &amp; Controls</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Abilene</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>dcaoili@samuelengineering.com</t>
+          <t>dcepeda@samuelengineering.com</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Instrumentation Engineer III</t>
+          <t>Sr. Project Controls Engineer IV</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Instrumentation &amp; Controls</t>
+          <t>Project Services</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>dcepeda@samuelengineering.com</t>
+          <t>dcoonrod@samuelengineering.com</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Sr. Project Controls Engineer IV</t>
+          <t>Sr. Piping Designer</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Project Services</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>dcoonrod@samuelengineering.com</t>
+          <t>dghadge@samuelengineering.com</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Sr. Piping Designer</t>
+          <t>Sr. Structural Designer</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Structural</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3479,39 +3479,39 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>dghadge@samuelengineering.com</t>
+          <t>dgrant@samuelengineering.com</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Sr. Structural Designer</t>
+          <t>Sr. Electrical Engineer</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Structural</t>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>dgrant@samuelengineering.com</t>
+          <t>dhall@samuelengineering.com</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Sr. Electrical Engineer</t>
+          <t>Accounting Specialist</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3523,17 +3523,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>dhall@samuelengineering.com</t>
+          <t>djalemayehu@samuelengineering.com</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Accounting Specialist</t>
+          <t>Director of Utilities</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Accounting</t>
+          <t>Corporate Administration</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3545,61 +3545,61 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>djalemayehu@samuelengineering.com</t>
+          <t>djoiner@samuelengineering.com</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Director of Utilities</t>
+          <t>Chief Electrical Engineer</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Corporate Administration</t>
+          <t>Electrical Engineers</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>djoiner@samuelengineering.com</t>
+          <t>dmetelko@samuelengineering.com</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Chief Electrical Engineer</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Electrical Engineers</t>
+          <t>General Administration</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>dmetelko@samuelengineering.com</t>
+          <t>dmiller@samuelengineering.com</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Administrative Assistant</t>
+          <t>Pipeline GIS Specialist/Technician I</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>General Administration</t>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3611,17 +3611,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>dmiller@samuelengineering.com</t>
+          <t>dnoschese@samuelengineering.com</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Pipeline GIS Specialist/Technician I</t>
+          <t>Sr. Project Manager</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3633,17 +3633,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>dnoschese@samuelengineering.com</t>
+          <t>drtorres@samuelengineering.com</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Sr. Project Manager</t>
+          <t>Process Engineer Intern</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Process Engineering</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3655,17 +3655,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>drtorres@samuelengineering.com</t>
+          <t>dsantjer@samuelengineering.com</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Process Engineer Intern</t>
+          <t>Sr. Piping Designer II</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Process Engineering</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3677,17 +3677,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>dsantjer@samuelengineering.com</t>
+          <t>dthorn@samuelengineering.com</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Sr. Piping Designer II</t>
+          <t>Manager of Renewable Energy Projects</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Project Management</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3699,61 +3699,61 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>dthorn@samuelengineering.com</t>
+          <t>dweber@samuelengineering.com</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Manager of Renewable Energy Projects</t>
+          <t>Sr. Director</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Senior Leadership</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Abilene</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>dweber@samuelengineering.com</t>
+          <t>dwhorton@samuelengineering.com</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Sr. Director</t>
+          <t>Sr. Piping Designer IV</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Senior Leadership</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Abilene</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>dwhorton@samuelengineering.com</t>
+          <t>ebrunk@samuelengineering.com</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Sr. Piping Designer IV</t>
+          <t>Sr. Project Manager</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3765,61 +3765,61 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ebrunk@samuelengineering.com</t>
+          <t>eciobanu@samuelengineering.com</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Sr. Project Manager</t>
+          <t>Mechanical Engineer</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Mechanical</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Rock Springs</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>eciobanu@samuelengineering.com</t>
+          <t>ecurtis@samuelengineering.com</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Mechanical Engineer</t>
+          <t>Sr. Civil Designer</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Mechanical</t>
+          <t>Civil</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Rock Springs</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ecurtis@samuelengineering.com</t>
+          <t>efisk@samuelengineering.com</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Sr. Civil Designer</t>
+          <t>Electrical Engineer</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Civil</t>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3831,17 +3831,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>efisk@samuelengineering.com</t>
+          <t>egoupil@samuelengineering.com</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Electrical Engineer</t>
+          <t>Document Control Specialist / Technician</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Doc Control</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3853,17 +3853,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>egoupil@samuelengineering.com</t>
+          <t>ekane@samuelengineering.com</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Document Control Specialist / Technician</t>
+          <t>Electrical Designer</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Doc Control</t>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3875,12 +3875,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ekane@samuelengineering.com</t>
+          <t>eolagoke@samuelengineering.com</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Electrical Designer</t>
+          <t>Electrical Engineer</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3897,17 +3897,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>eolagoke@samuelengineering.com</t>
+          <t>esamuel@samuelengineering.com</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Electrical Engineer</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Corporate Administration</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3919,12 +3919,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>esamuel@samuelengineering.com</t>
+          <t>esydow@samuelengineering.com</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CEO</t>
+          <t>CTO</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3941,17 +3941,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>esydow@samuelengineering.com</t>
+          <t>ethomas@samuelengineering.com</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CTO</t>
+          <t>Automation Engineer</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Corporate Administration</t>
+          <t>Automation &amp; Instrumentation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3963,61 +3963,61 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ethomas@samuelengineering.com</t>
+          <t>fbenton@samuelengineering.com</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Automation Engineer</t>
+          <t>Document Control Supervisor</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Automation &amp; Instrumentation</t>
+          <t>Document Control</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Abilene</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>fbenton@samuelengineering.com</t>
+          <t>fnaazar@samuelengineering.com</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Document Control Supervisor</t>
+          <t>Accounting Professional</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Document Control</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Abilene</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>fnaazar@samuelengineering.com</t>
+          <t>fpalmos@samuelengineering.com</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Accounting Professional</t>
+          <t>Mechanical Engineering Intern</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Accounting</t>
+          <t>Mechanical Engineering</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4029,17 +4029,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>fpalmos@samuelengineering.com</t>
+          <t>garmer@samuelengineering.com</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Mechanical Engineering Intern</t>
+          <t>Sr. Piping Designer</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Mechanical Engineering</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4051,17 +4051,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>garmer@samuelengineering.com</t>
+          <t>gbattin@samuelengineering.com</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Sr. Piping Designer</t>
+          <t>Sr. Civil Designer IV</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Civil</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4073,17 +4073,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>gbattin@samuelengineering.com</t>
+          <t>gbattles@samuelengineering.com</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Civil Designer</t>
+          <t>Sr. Structural Designer</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Civil</t>
+          <t>Structural</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4095,17 +4095,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>gbattles@samuelengineering.com</t>
+          <t>glove@samuelengineering.com</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Sr. Structural Designer</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Structural</t>
+          <t>Sr. E/I Designer/Electrical Superintendent</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4117,12 +4112,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>glove@samuelengineering.com</t>
+          <t>gmiller@samuelengineering.com</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Sr. E/I Designer/Electrical Superintendent</t>
+          <t>Sr. Architect</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Architecture</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4134,17 +4134,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>gmiller@samuelengineering.com</t>
+          <t>gschalck@samuelengineering.com</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Sr. Architect</t>
+          <t>Mechanical Engineer</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Architecture</t>
+          <t>Mechanical</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4156,61 +4156,56 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>gschalck@samuelengineering.com</t>
+          <t>gspradling@samuelengineering.com</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Mechanical Engineer</t>
+          <t>Sr. Structural Engineer</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Mechanical</t>
+          <t>Structural</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>gspradling@samuelengineering.com</t>
+          <t>hcurtis@samuelengineering.com</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Sr. Structural Engineer</t>
+          <t>Sr. Electrical Engineer</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Structural</t>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>hcurtis@samuelengineering.com</t>
+          <t>hharris@samuelengineering.com</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Sr. Electrical Engineer</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Electrical</t>
+          <t>Sr. Electrical Designer I</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4222,12 +4217,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>hharris@samuelengineering.com</t>
+          <t>hheyn@samuelengineering.com</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Sr. Electrical Designer I</t>
+          <t>Sr. Electrical Designer</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4239,61 +4239,61 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>hheyn@samuelengineering.com</t>
+          <t>hpollicoff@samuelengineering.com</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Sr. Electrical Designer</t>
+          <t>Sr. Process Engineer - M&amp;M</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Process Engineers</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>hpollicoff@samuelengineering.com</t>
+          <t>hsamuel@samuelengineering.com</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Sr. Process Engineer - M&amp;M</t>
+          <t>Manager – Proposal Development and Marketing</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Process Engineers</t>
+          <t>Business Development</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>hsamuel@samuelengineering.com</t>
+          <t>hsmith@samuelengineering.com</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Manager – Proposal Development and Marketing</t>
+          <t>Controller</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Business Development</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4305,17 +4305,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>hsmith@samuelengineering.com</t>
+          <t>ialexander@samuelengineering.com</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Controller</t>
+          <t>Sr. Project Manager</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Accounting</t>
+          <t>Project Management</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4327,17 +4327,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ialexander@samuelengineering.com</t>
+          <t>irustage@samuelengineering.com</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Sr. Project Manager</t>
+          <t>Sr. Plant Designer</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4349,12 +4349,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>irustage@samuelengineering.com</t>
+          <t>jadams@samuelengineering.com</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Sr. Plant Designer</t>
+          <t>Sr. Piping Designer</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4364,19 +4364,19 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>jadams@samuelengineering.com</t>
+          <t>jcarrizales@samuelengineering.com</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Sr. Piping Designer</t>
+          <t>Piping Designer</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4393,39 +4393,39 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>jcarrizales@samuelengineering.com</t>
+          <t>jcely@samuelengineering.com</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Piping Designer</t>
+          <t>Structural Designer</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Structural</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>jcely@samuelengineering.com</t>
+          <t>jchampine@samuelengineering.com</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Structural Designer</t>
+          <t>Project Assistant Lead - M&amp;M</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Structural</t>
+          <t>Administrative Department</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4437,51 +4437,51 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>jchampine@samuelengineering.com</t>
+          <t>jcotten@samuelengineering.com</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Project Assistant Lead - M&amp;M</t>
+          <t>Sr. Business Development Professional</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Administrative Department</t>
+          <t>Business Development</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>jcotten@samuelengineering.com</t>
+          <t>jcwilliams@samuelengineering.com</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Sr. Business Development Professional</t>
+          <t>Sr. Piping Designer</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Business Development</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>jcwilliams@samuelengineering.com</t>
+          <t>jduty@samuelengineering.com</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4496,46 +4496,46 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>jduty@samuelengineering.com</t>
+          <t>jellis@samuelengineering.com</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Sr. Piping Designer</t>
+          <t>General Arrangements &amp; Layout Supervisor</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Plant Design</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>jellis@samuelengineering.com</t>
+          <t>jjsorensen@samuelengineering.com</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>General Arrangements &amp; Layout Supervisor</t>
+          <t>Sr. Procurement Professional</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Plant Design</t>
+          <t>Project Services</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4547,17 +4547,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>jjsorensen@samuelengineering.com</t>
+          <t>jkabenjabu@samuelengineering.com</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Sr. Procurement Professional</t>
+          <t>Structural Engineer</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Project Services</t>
+          <t>Structural</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4569,17 +4569,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>jkabenjabu@samuelengineering.com</t>
+          <t>jkather@samuelengineering.com</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Structural Engineer</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Structural</t>
+          <t>CAD Manager</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4591,56 +4586,61 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>jkather@samuelengineering.com</t>
+          <t>jlatimer@samuelengineering.com</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>CAD Manager</t>
+          <t>Mechanical Engineer</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Mechanical Engineering</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>jlatimer@samuelengineering.com</t>
+          <t>jmaida@samuelengineering.com</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Mechanical Engineer</t>
+          <t>President</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Mechanical Engineering</t>
+          <t>Business Development</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>jmaida@samuelengineering.com</t>
+          <t>jmakrani@samuelengineering.com</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>President</t>
+          <t>Pipeline Engineer Intern</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Business Development</t>
+          <t>Pipeline</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4652,105 +4652,105 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>jmakrani@samuelengineering.com</t>
+          <t>jmason@samuelengineering.com</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Pipeline Engineer Intern</t>
+          <t>Project Controls Professional</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Pipeline</t>
+          <t>Project Controls</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>jmason@samuelengineering.com</t>
+          <t>jparker@samuelengineering.com</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Project Controls Professional</t>
+          <t>Sr. Piping Designer</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Project Controls</t>
+          <t>Piping Department</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>jparker@samuelengineering.com</t>
+          <t>jpavlas@samuelengineering.com</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Sr. Piping Designer</t>
+          <t>Sr. MEP Engineer</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Piping Department</t>
+          <t>Project Engineers</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Waco</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>jpavlas@samuelengineering.com</t>
+          <t>jphilippus@samuelengineering.com</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Sr. MEP Engineer</t>
+          <t>Sr. Piping Designer</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Project Engineers</t>
+          <t>Structural</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Waco</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>jphilippus@samuelengineering.com</t>
+          <t>jrehfeld@samuelengineering.com</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Sr. Piping Designer</t>
+          <t>Project Controls Professional</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Structural</t>
+          <t>Project Controls</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4762,17 +4762,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>jrehfeld@samuelengineering.com</t>
+          <t>jrein@samuelengineering.com</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Project Controls Professional</t>
+          <t>Sr. Structural Engineer I</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Project Controls</t>
+          <t>Structural</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4784,61 +4784,61 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>jrein@samuelengineering.com</t>
+          <t>jrivers@samuelengineering.com</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Sr. Structural Engineer I</t>
+          <t>Procurement Professional</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Structural</t>
+          <t>Procurement &amp; Logistics</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>jrivers@samuelengineering.com</t>
+          <t>jromero@samuelengineering.com</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Procurement Professional</t>
+          <t>Sr. Electrical Engineer</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Procurement &amp; Logistics</t>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>jromero@samuelengineering.com</t>
+          <t>jschilz@samuelengineering.com</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Sr. Electrical Engineer</t>
+          <t>Sr. Mapping Designer</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Pipeline</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4850,17 +4850,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>jschilz@samuelengineering.com</t>
+          <t>jsorensen@samuelengineering.com</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Sr. Mapping Designer</t>
+          <t>Director - Energy &amp; Pipeline Services</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Pipeline</t>
+          <t>Project Management</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4872,56 +4872,56 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>jsorensen@samuelengineering.com</t>
+          <t>jspitzer@samuelengineering.com</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Director - Energy &amp; Pipeline Services</t>
+          <t>Process Engineer I</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Process Engineers</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>jspitzer@samuelengineering.com</t>
+          <t>jstedman@samuelengineering.com</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Process Engineer I</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Process Engineers</t>
+          <t>Sr. Structural Designer</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>jstedman@samuelengineering.com</t>
+          <t>jstevens@samuelengineering.com</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Sr. Structural Designer</t>
+          <t>Civil Engineer</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Civil</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4933,105 +4933,105 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>jstevens@samuelengineering.com</t>
+          <t>jstewart@samuelengineering.com</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Civil Engineer</t>
+          <t>Piping Designer</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Civil</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>jstewart@samuelengineering.com</t>
+          <t>jstruble@samuelengineering.com</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Piping Designer</t>
+          <t>Construction Manager</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Construction &amp; Commissioning</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>jstruble@samuelengineering.com</t>
+          <t>jtowler@samuelengineering.com</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Construction Manager</t>
+          <t>Sr. Structural Designer</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Construction &amp; Commissioning</t>
+          <t>Structural</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>jtowler@samuelengineering.com</t>
+          <t>jweatherly@samuelengineering.com</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Sr. Structural Designer</t>
+          <t>Human Resources Assistant</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Structural</t>
+          <t>Human Resources</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>jweatherly@samuelengineering.com</t>
+          <t>jwilliams@samuelengineering.com</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Human Resources Assistant</t>
+          <t>Sr. Mechanical Engineer</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Human Resources</t>
+          <t>Mechanical</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -5043,149 +5043,149 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>jwilliams@samuelengineering.com</t>
+          <t>kblackwell@samuelengineering.com</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Sr. Mechanical Engineer</t>
+          <t>Sr. Structural/Piping Designer IV</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Mechanical</t>
+          <t>WY-Engineering</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Rock Springs</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>kblackwell@samuelengineering.com</t>
+          <t>kboswell@samuelengineering.com</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Sr. Structural/Piping Designer IV</t>
+          <t>Chief Engineer - Fabrication</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>WY-Engineering</t>
+          <t>Mechanical Engineering</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Rock Springs</t>
+          <t>Abilene</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>kboswell@samuelengineering.com</t>
+          <t>kchoyce@samuelengineering.com</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Chief Engineer - Fabrication</t>
+          <t>Sr. Project Manager</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Mechanical Engineering</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Abilene</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>kchoyce@samuelengineering.com</t>
+          <t>kcooper@samuelengineering.com</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Sr. Project Manager</t>
+          <t>Sr. Piping Designer</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>kcooper@samuelengineering.com</t>
+          <t>kdhliwayo@samuelengineering.com</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sr. Piping Designer</t>
+          <t>Sr. Automation Engineer</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Automation &amp; Instrumentation</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>kdhliwayo@samuelengineering.com</t>
+          <t>kforney@samuelengineering.com</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Sr. Automation Engineer</t>
+          <t>Sr. Project Controls Specialist/Technician</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Automation &amp; Instrumentation</t>
+          <t>Project Controls &amp; Estimating</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>kforney@samuelengineering.com</t>
+          <t>kgernentz@samuelengineering.com</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Sr. Project Controls Specialist/Technician</t>
+          <t>Pipe Stress Analyst</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Project Controls &amp; Estimating</t>
+          <t>Mechanical Engineering</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -5197,39 +5197,39 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>kgernentz@samuelengineering.com</t>
+          <t>kghaffari@samuelengineering.com</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Pipe Stress Analyst</t>
+          <t>Electrical Designer</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Mechanical Engineering</t>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>kghaffari@samuelengineering.com</t>
+          <t>kgkelly@samuelengineering.com</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Electrical Designer</t>
+          <t>Sr. Procurement Specialist/Technician</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Procurement</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5241,17 +5241,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>kgkelly@samuelengineering.com</t>
+          <t>kgramly@samuelengineering.com</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Sr. Procurement Specialist/Technician</t>
+          <t>Process Engineering Supervisor - Metals &amp; Minerals</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Procurement</t>
+          <t>(M&amp;M)</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5263,17 +5263,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>kgramly@samuelengineering.com</t>
+          <t>kheersink@samuelengineering.com</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Process Engineering Supervisor - Metals &amp; Minerals</t>
+          <t>Principal Engineer – Technical Solutions</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>(M&amp;M)</t>
+          <t>Process Engineers - O&amp;G</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5285,17 +5285,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>kheersink@samuelengineering.com</t>
+          <t>khoughton@samuelengineering.com</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Principal Engineer – Technical Solutions</t>
+          <t>Structural Design Supervisor. / CADEC Mgr.</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Process Engineers - O&amp;G</t>
+          <t>Structural</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5307,17 +5307,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>khoughton@samuelengineering.com</t>
+          <t>kjackson@samuelengineering.com</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Structural Design Supervisor. / CADEC Mgr.</t>
+          <t>Internal Documents Coordinator</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Structural</t>
+          <t>Document Control</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5329,17 +5329,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>kjackson@samuelengineering.com</t>
+          <t>kkillough@samuelengineering.com</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Internal Documents Coordinator</t>
+          <t>Process Engineer</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Document Control</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5351,17 +5351,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>kkillough@samuelengineering.com</t>
+          <t>kmahoney@samuelengineering.com</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Process Engineer</t>
+          <t>Sr. Project Manager</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>Civil</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5373,105 +5373,105 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>kmahoney@samuelengineering.com</t>
+          <t>kmccord@samuelengineering.com</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Sr. Project Manager</t>
+          <t>Sr. Instrumentation Engineer</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Civil</t>
+          <t>Instrumentation &amp; Controls</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>kmccord@samuelengineering.com</t>
+          <t>kmills@samuelengineering.com</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Sr. Instrumentation Engineer</t>
+          <t>Sr.Process Engineer</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Instrumentation &amp; Controls</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>kmills@samuelengineering.com</t>
+          <t>knarkah@samuelengineering.com</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Sr.Process Engineer</t>
+          <t>Mechanical Engineer</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>Mechanical Engineering</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Abilene</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>knarkah@samuelengineering.com</t>
+          <t>knuttall@samuelengineering.com</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Mechanical Engineer</t>
+          <t>Accounting Specialist/Technician</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Mechanical Engineering</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Abilene</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>knuttall@samuelengineering.com</t>
+          <t>kphillips@samuelengineering.com</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Accounting Specialist/Technician</t>
+          <t>Sr. Business Development Professional</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Accounting</t>
+          <t>Sr. Business Development Professional</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5483,17 +5483,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>kphillips@samuelengineering.com</t>
+          <t>kramasamy@samuelengineering.com</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Sr. Business Development Professional</t>
+          <t>Sr. Structural Designer</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Sr. Business Development Professional</t>
+          <t>Structural</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5505,17 +5505,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>kramasamy@samuelengineering.com</t>
+          <t>kseals@samuelengineering.com</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Sr. Structural Designer</t>
+          <t>P&amp;ID Chief/Piping Design Subject Matter Expert</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Structural</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5527,17 +5527,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>kseals@samuelengineering.com</t>
+          <t>kstansbury@samuelengineering.com</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>P&amp;ID Chief/Piping Design Subject Matter Expert</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Piping</t>
+          <t>Sr. Project Manager</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5549,12 +5544,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>kstansbury@samuelengineering.com</t>
+          <t>kstewart@samuelengineering.com</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Sr. Project Manager</t>
+          <t>Construction Mgr, Contractor</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Construction &amp; Commissioning</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5566,17 +5566,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>kstewart@samuelengineering.com</t>
+          <t>lblosser@samuelengineering.com</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Construction Mgr, Contractor</t>
+          <t>Electrical Designer I</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Construction &amp; Commissioning</t>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5588,17 +5588,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>lblosser@samuelengineering.com</t>
+          <t>lcarreras@samuelengineering.com</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Electrical Designer I</t>
+          <t>Project Assistant Lead</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Admin</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5610,12 +5610,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>lcarreras@samuelengineering.com</t>
+          <t>lelledge@samuelengineering.com</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Project Assistant Lead</t>
+          <t>Administrative Assistant Supervisor</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -5632,17 +5632,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>lelledge@samuelengineering.com</t>
+          <t>lkukic@samuelengineering.com</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Administrative Assistant Supervisor</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Admin</t>
+          <t>Procurement Supervisor</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5654,12 +5649,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>lkukic@samuelengineering.com</t>
+          <t>llabo@samuelengineering.com</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Procurement Supervisor</t>
+          <t>Sr. Structural Designer I</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Structural</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5671,17 +5671,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>llabo@samuelengineering.com</t>
+          <t>lohl@samuelengineering.com</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Sr. Structural Designer I</t>
+          <t>EI&amp;C Engineering Coordinator</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Structural</t>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5693,17 +5693,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>lohl@samuelengineering.com</t>
+          <t>lroot@samuelengineering.com</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>EI&amp;C Engineering Coordinator</t>
+          <t>Civil Supervisor</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Civil</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5715,17 +5715,17 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>lroot@samuelengineering.com</t>
+          <t>lschaefer@samuelengineering.com</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Civil Supervisor</t>
+          <t>Plant Layout Designer</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Civil</t>
+          <t>Plant Design</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5737,61 +5737,61 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>lschaefer@samuelengineering.com</t>
+          <t>madkins@samuelengineering.com</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Plant Layout Designer</t>
+          <t>Sr. Process Engineer - M&amp;M</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Plant Design</t>
+          <t>Process Engineers</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>madkins@samuelengineering.com</t>
+          <t>mbolling@samuelengineering.com</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Sr. Process Engineer - M&amp;M</t>
+          <t>Manager – Civil &amp; Structural Engineering</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Process Engineers</t>
+          <t>Project Engineers</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>mbolling@samuelengineering.com</t>
+          <t>mcjohnson@samuelengineering.com</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Manager – Civil &amp; Structural Engineering</t>
+          <t>Sr. Automation Engineer I</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Project Engineers</t>
+          <t>Automation &amp; Instrumentation</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5803,12 +5803,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>mcjohnson@samuelengineering.com</t>
+          <t>mdarnell@samuelengineering.com</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Sr. Automation Engineer I</t>
+          <t>Automation/Instrumentation Engineer</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -5825,17 +5825,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>mdarnell@samuelengineering.com</t>
+          <t>mfalla@samuelengineering.com</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Automation/Instrumentation Engineer</t>
+          <t>Sr. Structural Designer I</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Automation &amp; Instrumentation</t>
+          <t>Structural</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5847,17 +5847,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>mfalla@samuelengineering.com</t>
+          <t>mfortney@samuelengineering.com</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Sr. Structural Designer I</t>
+          <t>Project Manager I</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Structural</t>
+          <t>Project Management</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5869,61 +5869,61 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>mfortney@samuelengineering.com</t>
+          <t>mgand@samuelengineering.com</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Project Manager I</t>
+          <t>Sr. Systems Administrator</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Abilene</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>mgand@samuelengineering.com</t>
+          <t>mgarcia@samuelengineering.com</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Sr. Systems Administrator</t>
+          <t>Sr. Process Engineer</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Process Engineers - O&amp;G</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Abilene</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>mgarcia@samuelengineering.com</t>
+          <t>mgiardino@samuelengineering.com</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Sr. Process Engineer</t>
+          <t>Sr. Structural Designer I</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Process Engineers - O&amp;G</t>
+          <t>Structural</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5935,105 +5935,105 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>mgiardino@samuelengineering.com</t>
+          <t>mgriffin@samuelengineering.com</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Sr. Structural Designer I</t>
+          <t>Sr. Instrumentation Engineer</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Structural</t>
+          <t>Instrumentation &amp; Controls</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>mgriffin@samuelengineering.com</t>
+          <t>mhamilton@samuelengineering.com</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Sr. Instrumentation Engineer</t>
+          <t>Sr. Piping Designer II</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Instrumentation &amp; Controls</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>mhamilton@samuelengineering.com</t>
+          <t>mjackson@samuelengineering.com</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Sr. Piping Designer II</t>
+          <t>Sr. Project Manager IV</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Project Management - Hydrogen &amp; Modern Fuels</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>mjackson@samuelengineering.com</t>
+          <t>mjohnson@samuelengineering.com</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Sr. Project Manager IV</t>
+          <t>Sr, Automation Engineer I</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Project Management - Hydrogen &amp; Modern Fuels</t>
+          <t>Automation &amp; Instrumentation</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>mjohnson@samuelengineering.com</t>
+          <t>mkammerzell@samuelengineering.com</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Sr, Automation Engineer I</t>
+          <t>Sr. Electrical Designer</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Automation &amp; Instrumentation</t>
+          <t>Electrical Design</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -6045,17 +6045,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>mkammerzell@samuelengineering.com</t>
+          <t>mmacaraeg@samuelengineering.com</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Sr. Electrical Designer</t>
+          <t>Sr. Civil Designer</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Electrical Design</t>
+          <t>Civil</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6067,17 +6067,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>mmacaraeg@samuelengineering.com</t>
+          <t>mmarlow@samuelengineering.com</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Sr. Civil Designer</t>
+          <t>Project Manager IV</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Civil</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6089,17 +6089,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>mmarlow@samuelengineering.com</t>
+          <t>mmcglynn@samuelengineering.com</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Project Manager IV</t>
+          <t>Industry Manager - Metals &amp; Minerals</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6111,17 +6111,17 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>mmcglynn@samuelengineering.com</t>
+          <t>mmiratsky@samuelengineering.com</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Industry Manager - Metals &amp; Minerals</t>
+          <t>CAO</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>Corporate Administration</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6133,17 +6133,17 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>mmiratsky@samuelengineering.com</t>
+          <t>mmuro@samuelengineering.com</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>CAO</t>
+          <t>Study Manager</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Corporate Administration</t>
+          <t>Project Management</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6155,17 +6155,17 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>mmuro@samuelengineering.com</t>
+          <t>molmsted@samuelengineering.com</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Study Manager</t>
+          <t>Director - Engineering &amp; Project Execution</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Pipeline Services</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6177,17 +6177,17 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>molmsted@samuelengineering.com</t>
+          <t>mparks@samuelengineering.com</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Director - Engineering &amp; Project Execution</t>
+          <t>Pipeline Engineer</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Pipeline Services</t>
+          <t>Pipeline</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6199,17 +6199,17 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>mparks@samuelengineering.com</t>
+          <t>mposten@samuelengineering.com</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Pipeline Engineer</t>
+          <t>Process Engineer IV</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Pipeline</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6221,17 +6221,17 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>mposten@samuelengineering.com</t>
+          <t>mprabhu@samuelengineering.com</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Process Engineer IV</t>
+          <t>Process Engineer Intern</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>Process Engineers - M&amp;M</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6243,61 +6243,61 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>mprabhu@samuelengineering.com</t>
+          <t>mreed@samuelengineering.com</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Process Engineer Intern</t>
+          <t>Sr.Piiping Designer</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Process Engineers - M&amp;M</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Abilene</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>mreed@samuelengineering.com</t>
+          <t>mschindler@samuelengineering.com</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Sr.Piiping Designer</t>
+          <t>Mechanical Engineer</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Mechanical</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Abilene</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>mschindler@samuelengineering.com</t>
+          <t>mserpe@samuelengineering.com</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Mechanical Engineer</t>
+          <t>Sr. Accounting Professional IV</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Mechanical</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6309,17 +6309,17 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>mserpe@samuelengineering.com</t>
+          <t>mskelskey@samuelengineering.com</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Sr. Accounting Professional IV</t>
+          <t>Sr. Civil Engineer</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Accounting</t>
+          <t>Civil</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6331,17 +6331,17 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>mskelskey@samuelengineering.com</t>
+          <t>msmith@samuelengineering.com</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Sr. Civil Engineer</t>
+          <t>Electrical Engineer IV</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Civil</t>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -6353,61 +6353,61 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>msmith@samuelengineering.com</t>
+          <t>msteelman@samuelengineering.com</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Electrical Engineer IV</t>
+          <t>CAD Drafter</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>msteelman@samuelengineering.com</t>
+          <t>msteinhoff@samuelengineering.com</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>CAD Drafter</t>
+          <t>Instrumentation Specialist/Technician II</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Automation &amp; Instrumentation</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>msteinhoff@samuelengineering.com</t>
+          <t>mtamhane@samuelengineering.com</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Instrumentation Specialist/Technician II</t>
+          <t>Manager of EI&amp;C</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Automation &amp; Instrumentation</t>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -6419,17 +6419,17 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>mtamhane@samuelengineering.com</t>
+          <t>mtoso@samuelengineering.com</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Manager of EI&amp;C</t>
+          <t>Mechanical Engineering Supervisor - Metals &amp; Minerals</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Mechanical - M&amp;M</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -6441,17 +6441,17 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>mtoso@samuelengineering.com</t>
+          <t>mvasquez@samuelengineering.com</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Mechanical Engineering Supervisor - Metals &amp; Minerals</t>
+          <t>Structural Drafter Intern</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Mechanical - M&amp;M</t>
+          <t>Structural</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -6463,17 +6463,17 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>mvasquez@samuelengineering.com</t>
+          <t>mwiland@samuelengineering.com</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Structural Drafter Intern</t>
+          <t>Sr. Electrical Designer I</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Structural</t>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -6485,17 +6485,17 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>mwiland@samuelengineering.com</t>
+          <t>mwu@samuelengineering.com</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Sr. Electrical Designer I</t>
+          <t>Payroll Specialist</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Human Resources</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -6507,17 +6507,17 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>mwu@samuelengineering.com</t>
+          <t>nblomgren@samuelengineering.com</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Payroll Specialist</t>
+          <t>Survey Technician &amp; Mapping Lead</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Human Resources</t>
+          <t>Pipeline Services</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -6529,17 +6529,17 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>nblomgren@samuelengineering.com</t>
+          <t>ncheishvili@samuelengineering.com</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Survey Technician &amp; Mapping Lead</t>
+          <t>Process Engineer III</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Pipeline Services</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -6551,17 +6551,17 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ncheishvili@samuelengineering.com</t>
+          <t>ndemel@samuelengineering.com</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Process Engineer III</t>
+          <t>Sr. Project Manager I</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -6573,17 +6573,17 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ndemel@samuelengineering.com</t>
+          <t>ngunsenkhorol@samuelengineering.com</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Sr. Project Manager I</t>
+          <t>Procurement Professional</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Procurement</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6595,61 +6595,61 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ngunsenkhorol@samuelengineering.com</t>
+          <t>nholcomb@samuelengineering.com</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Procurement Professional</t>
+          <t>Chief Instrumentation Engineer</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Procurement</t>
+          <t>Instrumentation &amp; Controls</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>nholcomb@samuelengineering.com</t>
+          <t>nhuckins@samuelengineering.com</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Chief Instrumentation Engineer</t>
+          <t>Sr. Piping Designer III</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Instrumentation &amp; Controls</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>nhuckins@samuelengineering.com</t>
+          <t>nmohamed@samuelengineering.com</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Sr. Piping Designer III</t>
+          <t>Systems Administrator</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6661,17 +6661,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>nmohamed@samuelengineering.com</t>
+          <t>nthompson@samuelengineering.com</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Systems Administrator</t>
+          <t>Pipeline Engineer</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Pipeline</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -6683,17 +6683,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>nthompson@samuelengineering.com</t>
+          <t>nuriona@samuelengineering.com</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Pipeline Engineer</t>
+          <t>Sr. Structural Designer</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Pipeline</t>
+          <t>Structural</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -6705,61 +6705,61 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>nuriona@samuelengineering.com</t>
+          <t>nviola@samuelengineering.com</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Sr. Structural Designer</t>
+          <t>Electrical Designer</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Structural</t>
+          <t>Electrical Design</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Abilene</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>nviola@samuelengineering.com</t>
+          <t>oebuka@samuelengineering.com</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Electrical Designer</t>
+          <t>Procurement Professional</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Electrical Design</t>
+          <t>Procurement</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Abilene</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>oebuka@samuelengineering.com</t>
+          <t>pblosser@samuelengineering.com</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Procurement Professional</t>
+          <t>Sr. Technical Advisor - EI&amp;C Design</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Procurement</t>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6771,39 +6771,39 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>pblosser@samuelengineering.com</t>
+          <t>pbrown@samuelengineering.com</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Sr. Technical Advisor - EI&amp;C Design</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Project Management - Energy &amp; Pipeline</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>pbrown@samuelengineering.com</t>
+          <t>pdeterding@samuelengineering.com</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>CAD Drafter</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Project Management - Energy &amp; Pipeline</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -6815,12 +6815,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>pdeterding@samuelengineering.com</t>
+          <t>pgiacomozzi@samuelengineering.com</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>CAD Drafter</t>
+          <t>Piping Design Supervisor</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -6830,24 +6830,24 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>pgiacomozzi@samuelengineering.com</t>
+          <t>phayden@samuelengineering.com</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Piping Design Supervisor</t>
+          <t>Mapping Designer II</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Pipeline</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -6859,61 +6859,61 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>phayden@samuelengineering.com</t>
+          <t>phoskins@samuelengineering.com</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Mapping Designer II</t>
+          <t>Systems Administrator</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Pipeline</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Abilene</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>phoskins@samuelengineering.com</t>
+          <t>pjacobs@samuelengineering.com</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Systems Administrator</t>
+          <t>Business Development Professional IV</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Business Development</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Abilene</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>pjacobs@samuelengineering.com</t>
+          <t>pjgreen@samuelengineering.com</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Business Development Professional IV</t>
+          <t>Accounting Supervisor</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Business Development</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -6925,34 +6925,34 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>pjgreen@samuelengineering.com</t>
+          <t>plangley@samuelengineering.com</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Accounting Supervisor</t>
+          <t>Sr. Piping Designer</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Accounting</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Abilene</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>plangley@samuelengineering.com</t>
+          <t>plawrence@samuelengineering.com</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Sr. Piping Designer</t>
+          <t>Sr. Piping Designer I</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -6962,24 +6962,24 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Abilene</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>plawrence@samuelengineering.com</t>
+          <t>plewis@samuelengineering.com</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Sr. Piping Designer I</t>
+          <t>Sr. Electrical Engineer III</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -6991,17 +6991,17 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>plewis@samuelengineering.com</t>
+          <t>pmartineau@samuelengineering.com</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Sr. Electrical Engineer III</t>
+          <t>Sr. Structural Engineer I</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Structural</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -7013,17 +7013,17 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>pmartineau@samuelengineering.com</t>
+          <t>pmech@samuelengineering.com</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Sr. Structural Engineer I</t>
+          <t>Sr. Mechanical Engineer I</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Structural</t>
+          <t>Mechanical - M&amp;M</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -7035,68 +7035,68 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>pmech@samuelengineering.com</t>
+          <t>ppourvash@samuelengineering.com</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Sr. Mechanical Engineer I</t>
+          <t>Sr. Mechanical Engineer</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Mechanical - M&amp;M</t>
+          <t>Mechanical Engineering</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Abilene</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ppourvash@samuelengineering.com</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>Sr. Mechanical Engineer</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>Mechanical Engineering</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>Abilene</t>
+          <t>projectassistance@samuelengineering.com</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>projectassistance@samuelengineering.com</t>
+          <t>qlafemina@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>CAD Drafter I</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>qlafemina@samuelengineering.com</t>
+          <t>ralnakkash@samuelengineering.com</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>CAD Drafter I</t>
+          <t>Sr. Structural Engineer</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Structural</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -7108,39 +7108,39 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ralnakkash@samuelengineering.com</t>
+          <t>rbloser@samuelengineering.com</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Sr. Structural Engineer</t>
+          <t>Process Engineering Supervisor - Hydrogen &amp; Modern Fuels</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Structural</t>
+          <t>Process Engineers</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>rbloser@samuelengineering.com</t>
+          <t>rboone@samuelengineering.com</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Process Engineering Supervisor - Hydrogen &amp; Modern Fuels</t>
+          <t>Project Engineers</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Process Engineers</t>
+          <t>Project Management - Hydrogen &amp; Modern Fuels</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -7152,17 +7152,17 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>rboone@samuelengineering.com</t>
+          <t>rboyce@samuelengineering.com</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Project Engineers</t>
+          <t>Process Engineer</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Project Management - Hydrogen &amp; Modern Fuels</t>
+          <t>Process Engineers</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -7174,17 +7174,17 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>rboyce@samuelengineering.com</t>
+          <t>rcox@samuelengineering.com</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Process Engineer</t>
+          <t>Sr. Piping Designer</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Process Engineers</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -7196,17 +7196,17 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>rcox@samuelengineering.com</t>
+          <t>redwards@samuelengineering.com</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Sr. Piping Designer</t>
+          <t>Mechanical Supervisor - Metals &amp; Minerals</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Mechanical Engineering</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -7218,39 +7218,39 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>redwards@samuelengineering.com</t>
+          <t>rhollenbach@samuelengineering.com</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Mechanical Supervisor - Metals &amp; Minerals</t>
+          <t>Process Technical Advisor (O&amp;G)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Mechanical Engineering</t>
+          <t>Process Engineers - O&amp;G</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>rhollenbach@samuelengineering.com</t>
+          <t>rjohnson@samuelengineering.com</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Process Technical Advisor (O&amp;G)</t>
+          <t>Sr. Pipeline GIS Professional III</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Process Engineers - O&amp;G</t>
+          <t>Pipeline Services</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -7262,105 +7262,105 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>rjohnson@samuelengineering.com</t>
+          <t>rkarki@samuelengineering.com</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Sr. Pipeline GIS Professional III</t>
+          <t>Structural Design Supervisor</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Pipeline Services</t>
+          <t>Structural</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>rkarki@samuelengineering.com</t>
+          <t>rmanes@samuelengineering.com</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Structural Design Supervisor</t>
+          <t>Sr. Director</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Structural</t>
+          <t>Distinguished Experts</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>rmanes@samuelengineering.com</t>
+          <t>rmcdaniel@samuelengineering.com</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Sr. Director</t>
+          <t>Sr. Process Engineer - M&amp;M</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Distinguished Experts</t>
+          <t>Process Engineers</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>rmcdaniel@samuelengineering.com</t>
+          <t>rmills@samuelengineering.com</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Sr. Process Engineer - M&amp;M</t>
+          <t>Sr. Structural Engineer I</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Process Engineers</t>
+          <t>Structural</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>rmills@samuelengineering.com</t>
+          <t>rmorris@samuelengineering.com</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Sr. Structural Engineer I</t>
+          <t>Chief Electrical Engineer</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Structural</t>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -7372,17 +7372,17 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>rmorris@samuelengineering.com</t>
+          <t>rpereira@samuelengineering.com</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Chief Electrical Engineer</t>
+          <t>Procurement Supervisor</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Project Services</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -7394,17 +7394,17 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>rpereira@samuelengineering.com</t>
+          <t>rquintana@samuelengineering.com</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Procurement Supervisor</t>
+          <t>CAD Drafter I</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Project Services</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -7416,83 +7416,83 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>rquintana@samuelengineering.com</t>
+          <t>rrasmusson@samuelengineering.com</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>CAD Drafter I</t>
+          <t>Sr. Piping Designer</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>WY-Engineering</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Rock Springs</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>rrasmusson@samuelengineering.com</t>
+          <t>rrollins@samuelengineering.com</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Sr. Piping Designer</t>
+          <t>Sr. Mechanical Engineer</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>WY-Engineering</t>
+          <t>Mechanical Engineering</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Rock Springs</t>
+          <t>Abilene</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>rrollins@samuelengineering.com</t>
+          <t>rspitzer@samuelengineering.com</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Sr. Mechanical Engineer</t>
+          <t>Process Engineer</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Mechanical Engineering</t>
+          <t>Process Engineers</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Abilene</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>rspitzer@samuelengineering.com</t>
+          <t>rteel@samuelengineering.com</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Process Engineer</t>
+          <t>Sr. Piping Designer</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Process Engineers</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -7504,61 +7504,61 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>rteel@samuelengineering.com</t>
+          <t>rthompson@samuelengineering.com</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Sr. Piping Designer</t>
+          <t>Mechanical Engineer II</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Mechanical Engineering</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Abilene</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>rthompson@samuelengineering.com</t>
+          <t>rwalty@samuelengineering.com</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Mechanical Engineer II</t>
+          <t>Sr. Procurement Professional II</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Mechanical Engineering</t>
+          <t>Procurement</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Abilene</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>rwalty@samuelengineering.com</t>
+          <t>rwilliams@samuelengineering.com</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Sr. Procurement Professional II</t>
+          <t>Vice President</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Procurement</t>
+          <t>Corporate Administration</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -7570,17 +7570,17 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>rwilliams@samuelengineering.com</t>
+          <t>rzimmermann@samuelengineering.com</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Vice President</t>
+          <t>Piping Design Manager</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Corporate Administration</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -7592,17 +7592,17 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>rzimmermann@samuelengineering.com</t>
+          <t>sapozder@samuelengineering.com</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Piping Design Manager</t>
+          <t>Software Engineer IV</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -7614,17 +7614,17 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>sapozder@samuelengineering.com</t>
+          <t>sclay@samuelengineering.com</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Software Engineer IV</t>
+          <t>Sr Project Manager IV</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -7636,17 +7636,17 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>sclay@samuelengineering.com</t>
+          <t>sengle@samuelengineering.com</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Sr Project Manager IV</t>
+          <t>Sr. Piping Designer IV</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -7658,17 +7658,17 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>sengle@samuelengineering.com</t>
+          <t>sheath@samuelengineering.com</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Sr. Piping Designer IV</t>
+          <t>Project Engineer I</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Pipeline Services</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -7680,39 +7680,39 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>sheath@samuelengineering.com</t>
+          <t>shilburn@samuelengineering.com</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Project Engineer I</t>
+          <t>Project Asisstant</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Pipeline Services</t>
+          <t>Administration</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>shilburn@samuelengineering.com</t>
+          <t>shukill@samuelengineering.com</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Project Asisstant</t>
+          <t>Piping Design Supervisor</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Administration</t>
+          <t>Piping Department</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -7724,83 +7724,83 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>shukill@samuelengineering.com</t>
+          <t>smaguire@samuelengineering.com</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Piping Design Supervisor</t>
+          <t>Sr. Mechanical Engineer</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Piping Department</t>
+          <t>Mechanical</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>smaguire@samuelengineering.com</t>
+          <t>smarshall@samuelengineering.com</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Sr. Mechanical Engineer</t>
+          <t>Electrical Designer</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Mechanical</t>
+          <t>Electrical Design</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Abilene</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>smarshall@samuelengineering.com</t>
+          <t>snevarez@samuelengineering.com</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Electrical Designer</t>
+          <t>Outreach Coordinator</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Electrical Design</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Abilene</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>snevarez@samuelengineering.com</t>
+          <t>snevins@samuelengineering.com</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Outreach Coordinator</t>
+          <t>Project Controls Supervisor</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Project Services</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -7812,17 +7812,17 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>snevins@samuelengineering.com</t>
+          <t>sowen@samuelengineering.com</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Project Controls Supervisor</t>
+          <t>Document Control Supervisorr</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Project Services</t>
+          <t>Document Control</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -7834,17 +7834,17 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>sowen@samuelengineering.com</t>
+          <t>spozder@samuelengineering.com</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Document Control Supervisorr</t>
+          <t>Distinguished Expert</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Document Control</t>
+          <t>Distinguished Experts</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -7856,17 +7856,17 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>spozder@samuelengineering.com</t>
+          <t>srabon@samuelengineering.com</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Distinguished Expert</t>
+          <t>Civil Engineer IV</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Distinguished Experts</t>
+          <t>Civil</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -7878,100 +7878,100 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>srabon@samuelengineering.com</t>
+          <t>srathod@samuelengineering.com</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Civil Engineer IV</t>
+          <t>Sr. Structural/Piping Designer</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Civil</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Rock Springs</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>srathod@samuelengineering.com</t>
+          <t>sstrain@samuelengineering.com</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Sr. Structural/Piping Designer</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>Piping</t>
+          <t>Manager of Technology &amp; Design Advancement</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Rock Springs</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>sstrain@samuelengineering.com</t>
+          <t>tarce@samuelengineering.com</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Manager of Technology &amp; Design Advancement</t>
+          <t>Mechanical Engineer</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Mechanical Engineering</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Abilene</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>tarce@samuelengineering.com</t>
+          <t>tarchuleta@samuelengineering.com</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Mechanical Engineer</t>
+          <t>Manager of Process Engineering - Oil &amp; Gas</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Mechanical Engineering</t>
+          <t>Process Engineers - O&amp;G</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Abilene</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>tarchuleta@samuelengineering.com</t>
+          <t>tbarry@samuelengineering.com</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Manager of Process Engineering - Oil &amp; Gas</t>
+          <t>Sr.Systems Administrator</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Process Engineers - O&amp;G</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -7983,17 +7983,17 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>tbarry@samuelengineering.com</t>
+          <t>tbray@samuelengineering.com</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Sr.Systems Administrator</t>
+          <t>Accounting Specialist/Technician I</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -8005,17 +8005,17 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>tbray@samuelengineering.com</t>
+          <t>tbuzogany@samuelengineering.com</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Accounting Specialist/Technician I</t>
+          <t>Piping Designer IV</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Accounting</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -8027,17 +8027,17 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>tbuzogany@samuelengineering.com</t>
+          <t>tchapman@samuelengineering.com</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Piping Designer IV</t>
+          <t>Sr. Mechanical Engineer IV</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Mechanical</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -8049,17 +8049,17 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>tchapman@samuelengineering.com</t>
+          <t>tcrafton@samuelengineering.com</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Sr. Mechanical Engineer IV</t>
+          <t>Sr. Electrical Designer I</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Mechanical</t>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -8071,17 +8071,17 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>tcrafton@samuelengineering.com</t>
+          <t>tfarris@samuelengineering.com</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Sr. Electrical Designer I</t>
+          <t>Sr. Structural Designer II</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Structural</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -8093,17 +8093,17 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>tfarris@samuelengineering.com</t>
+          <t>tgriffin@samuelengineering.com</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Sr. Structural Designer II</t>
+          <t>Sr. Mechanical Engineer I</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Structural</t>
+          <t>Mechanical - M&amp;M</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -8115,17 +8115,17 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>tgriffin@samuelengineering.com</t>
+          <t>tharper@samuelengineering.com</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Sr. Mechanical Engineer I</t>
+          <t>Design Manager</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Mechanical - M&amp;M</t>
+          <t>Plant Design</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -8137,17 +8137,17 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>tharper@samuelengineering.com</t>
+          <t>thillen@samuelengineering.com</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Design Manager</t>
+          <t>Civil Designer III</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Plant Design</t>
+          <t>Civil</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -8159,127 +8159,127 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>thillen@samuelengineering.com</t>
+          <t>tjeter@samuelengineering.com</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Civil Designer III</t>
+          <t>Sr. Piping Designer</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Civil</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>tjeter@samuelengineering.com</t>
+          <t>tjones@samuelengineering.com</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Sr. Piping Designer</t>
+          <t>Project Controls Specialist/Technician</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Project Controls</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>tjones@samuelengineering.com</t>
+          <t>tlambremont@samuelengineering.com</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Project Controls Specialist/Technician</t>
+          <t>Sr. Administrative Assistant</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Project Controls</t>
+          <t>Administration</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Abilene</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>tlambremont@samuelengineering.com</t>
+          <t>tlong@samuelengineering.com</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Sr. Administrative Assistant</t>
+          <t>Sr. Piping Designer</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Administration</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Abilene</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>tlong@samuelengineering.com</t>
+          <t>tmess@samuelengineering.com</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Sr. Piping Designer</t>
+          <t>Sr. Project Manager III</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>tmess@samuelengineering.com</t>
+          <t>tnguyen@samuelengineering.com</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Sr. Project Manager III</t>
+          <t>Sr. Structural Engineer I</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Structural</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -8291,85 +8291,85 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>tnguyen@samuelengineering.com</t>
+          <t>tparks@samuelengineering.com</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Sr. Structural Engineer I</t>
+          <t>Sr. Piping Designer</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Structural</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Abilene</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>tparks@samuelengineering.com</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>Sr. Piping Designer</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>Piping</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>Abilene</t>
+          <t>training@samuelengineering.com</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>training@samuelengineering.com</t>
+          <t>trenehan@samuelengineering.com</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Project Manager IV</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>trenehan@samuelengineering.com</t>
+          <t>twilliams@samuelengineering.com</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Project Manager IV</t>
+          <t>Piping Designer</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Piping</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>twilliams@samuelengineering.com</t>
+          <t>vparadis@samuelengineering.com</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Piping Designer</t>
+          <t>Sr. Piping Designer I</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -8379,24 +8379,24 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>vparadis@samuelengineering.com</t>
+          <t>vsamuel@samuelengineering.com</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Sr. Piping Designer I</t>
+          <t>Manager - Marketing &amp; Corporate Training</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Project Engineer</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -8408,17 +8408,17 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>vsamuel@samuelengineering.com</t>
+          <t>vthakkar@samuelengineering.com</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Manager - Marketing &amp; Corporate Training</t>
+          <t>Sr. Electrical Engineer</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Project Engineer</t>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -8430,108 +8430,86 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>vthakkar@samuelengineering.com</t>
+          <t>wjones@samuelengineering.com</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Sr. Electrical Engineer</t>
+          <t>Sr. Instrumentation Designer</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Instrumentation &amp; Controls</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Tyler</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>wjones@samuelengineering.com</t>
+          <t>zkreider@samuelengineering.com</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Sr. Instrumentation Designer</t>
+          <t>Sr. Project Manager IV</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Instrumentation &amp; Controls</t>
+          <t>Project Services</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Greenwood Village</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>zkreider@samuelengineering.com</t>
+          <t>zsamiec@samuelengineering.com</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Sr. Project Manager IV</t>
+          <t>Sr. Project Manager</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Project Services</t>
+          <t>WY-Project Management</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Greenwood Village</t>
+          <t>Rock Springs</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>zsamiec@samuelengineering.com</t>
+          <t>zsokolowski@samuelengineering.com</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Sr. Project Manager</t>
+          <t>Process Engineer Intern</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>WY-Project Management</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
-        <is>
-          <t>Rock Springs</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>zsokolowski@samuelengineering.com</t>
-        </is>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>Process Engineer Intern</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr">
         <is>
           <t>Greenwood Village</t>
         </is>
